--- a/VoA/Grammar_en_GB.xlsx
+++ b/VoA/Grammar_en_GB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Speech\VoA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48C1834-F27C-4E27-ACF4-58ECFEF6A3C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19772BB5-21D7-4464-A66D-28F9F84D3880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intent" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,10 @@
     <t>INTENT_Gen_Greeting</t>
   </si>
   <si>
-    <t>wish florian happy birthday</t>
-  </si>
-  <si>
-    <t>happy birthday florian</t>
+    <t>good morning</t>
+  </si>
+  <si>
+    <t>good morning to you too</t>
   </si>
 </sst>
 </file>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE99B1B-2EB0-48C7-9F03-8A198BFFCEEB}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
